--- a/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
+++ b/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -114,6 +114,246 @@
   </si>
   <si>
     <t>inicio-sesion</t>
+  </si>
+  <si>
+    <t>Ingreso cliente no registrado.</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que los datos no son correctos.</t>
+  </si>
+  <si>
+    <t>Ingreso cliente registrado.</t>
+  </si>
+  <si>
+    <t>OK. Ingreso al sistema.</t>
+  </si>
+  <si>
+    <t>Click en el link para registrarse.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a registro-cliente.</t>
+  </si>
+  <si>
+    <t>Click en el link de olvidó su contraseña.</t>
+  </si>
+  <si>
+    <t>NO IMPLEMENTADO</t>
+  </si>
+  <si>
+    <t>Navegación</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Click en el link Servicios.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-servicios.</t>
+  </si>
+  <si>
+    <t>Click en el link Solicitudes.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-solicitudes.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-publicaciones-contratadas.</t>
+  </si>
+  <si>
+    <t>Click en el link Mi Perfil.</t>
+  </si>
+  <si>
+    <t>Click en el link Mis Contactos.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/ver-perfil-usuario/idCliente.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/perfil-usuario.</t>
+  </si>
+  <si>
+    <t>Click en el link Mi Cuenta.</t>
+  </si>
+  <si>
+    <t>Click en el link Salir.</t>
+  </si>
+  <si>
+    <t>OK. Borra datos del local storage y sale del sistema.</t>
+  </si>
+  <si>
+    <t>Click en el link Ofrecer Servicio.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/ofrecer-servicio.</t>
+  </si>
+  <si>
+    <t>Click en el link Solicitar Servicio.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/solicitar-servicio.</t>
+  </si>
+  <si>
+    <t>Click en el link Mis Servicios.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-servicios-cliente.</t>
+  </si>
+  <si>
+    <t>Click en el link Mis Solicitudes.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-solicitudes-cliente</t>
+  </si>
+  <si>
+    <t>Links comunes a toda el sistema (Front Cliente)</t>
+  </si>
+  <si>
+    <t>Ofrecer Servicio</t>
+  </si>
+  <si>
+    <t>dashboard/ofrecer-servicio</t>
+  </si>
+  <si>
+    <t>Servicio, Título y descripción vacios</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que debe seleccionar un servicio, ingresar un título. La descripción se completa automaticamente si es vacia (Sin Descripción).</t>
+  </si>
+  <si>
+    <t>Título con menos de 3 caracteréres</t>
+  </si>
+  <si>
+    <t>Datos correctos, sin respuestas y no seleccionando imágenes.</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que debe ingresar un título con al menos 3 caractéres.</t>
+  </si>
+  <si>
+    <t>Datos correctos, con respuestas y no seleccionando imágenes.</t>
+  </si>
+  <si>
+    <t>Datos correctos, con respuestas y seleccionando imágenes.</t>
+  </si>
+  <si>
+    <t>Solicitar Servicio</t>
+  </si>
+  <si>
+    <t>dashboard/solicitar-servicio</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-solicitudes-cliente.</t>
+  </si>
+  <si>
+    <t>Listado de Servicio Cliente</t>
+  </si>
+  <si>
+    <t>dashboard/listado-servicios-cliente</t>
+  </si>
+  <si>
+    <t>Lista todos los servicios del cliente logueado.</t>
+  </si>
+  <si>
+    <t>Ver Servicio</t>
+  </si>
+  <si>
+    <t>Click en el Link ver de una publicación.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/ver-publicacion-ofrecida/idPublicacionSeleccionada. Muestra todos los datos de la publicación.</t>
+  </si>
+  <si>
+    <t>Editar Servicio</t>
+  </si>
+  <si>
+    <t>Click en el Link editar de una publicación.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/editar-servicio-cliente/idPublicacionSeleccionada. Muestra todos los datos de la publicación y permite editar los mismos.</t>
+  </si>
+  <si>
+    <t>Activar/Desactivar Servicio</t>
+  </si>
+  <si>
+    <t>Click en el Link Activar/Desactivar publicación.</t>
+  </si>
+  <si>
+    <t>OK. Activa/Desactiva la publicación.</t>
+  </si>
+  <si>
+    <t>Listado de Solicitudes Cliente</t>
+  </si>
+  <si>
+    <t>Ver Solicitudes</t>
+  </si>
+  <si>
+    <t>Editar Solicitud</t>
+  </si>
+  <si>
+    <t>Activar/Desactivar Solicitud</t>
+  </si>
+  <si>
+    <t>dashboard/listado-solicitudes-cliente</t>
+  </si>
+  <si>
+    <t>Lista todos las solicitudes del cliente logueado.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/ver-publicacion-solicitada/idPublicacionSeleccionada. Muestra todos los datos de la publicación.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/editar-solicitud-cliente/idPublicacionSeleccionada. Muestra todos los datos de la publicación y permite editar los mismos.</t>
+  </si>
+  <si>
+    <t>Listado Comentarios Pendientes</t>
+  </si>
+  <si>
+    <t>Lista todos los comentarios pendientes de las solictudes finalizadas.</t>
+  </si>
+  <si>
+    <t>Comentar y Puntuar Cliente Contratado</t>
+  </si>
+  <si>
+    <t>Click en el Link comentar. No se ingresa comentario.</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que se debe ingresar un comentario.</t>
+  </si>
+  <si>
+    <t>Click en el Link comentar. Se ingresa comentario de una letra.</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que se debe ingresar un comentario con al menos dos letras.</t>
+  </si>
+  <si>
+    <t>Click en el Link comentar. Comentario con dos o mas letras.</t>
+  </si>
+  <si>
+    <t>OK.</t>
+  </si>
+  <si>
+    <t>Listado de los Servicio del sistema</t>
+  </si>
+  <si>
+    <t>dashboard/listado-servicios</t>
+  </si>
+  <si>
+    <t>Lista todos los servicios del sistema, son links para acceder a las publicaciones.</t>
+  </si>
+  <si>
+    <t>Selección de un servicio</t>
+  </si>
+  <si>
+    <t>Click en un servicio.</t>
+  </si>
+  <si>
+    <t>dashboard/listado-solicitudes</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-servicios-ofrecidos/idServicioSeleccionado. Muestra todas las publicaciones del servicio seleccionado.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/listado-solicitudes-ofrecidos/idServicioSeleccionado. Muestra todas las solicitudes del servicio seleccionado.</t>
   </si>
 </sst>
 </file>
@@ -137,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +393,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,10 +442,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,197 +729,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50.88671875" customWidth="1"/>
     <col min="3" max="3" width="70.109375" customWidth="1"/>
-    <col min="4" max="4" width="97.109375" customWidth="1"/>
+    <col min="4" max="4" width="136.109375" customWidth="1"/>
     <col min="5" max="5" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
+++ b/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="157">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -354,6 +354,147 @@
   </si>
   <si>
     <t>OK. Redirecciona a dashboard/listado-solicitudes-ofrecidos/idServicioSeleccionado. Muestra todas las solicitudes del servicio seleccionado.</t>
+  </si>
+  <si>
+    <t>Listado de los Servicio Contratados por el cliente</t>
+  </si>
+  <si>
+    <t>dashboard/listado-publicaciones-contratadas</t>
+  </si>
+  <si>
+    <t>Lista todos los servicios contratados por el cliente logueado.</t>
+  </si>
+  <si>
+    <t>Ver publicación contratada</t>
+  </si>
+  <si>
+    <t>Lista todos los comentarios pendientes de los servicios contratados.</t>
+  </si>
+  <si>
+    <t>Redirecciona a dashboard/ver-publicacion-ofrecida/idPublicacionSeleccionada. Muestra ventana modal para completar comentario y puntuación. Alert correspondiente indicando que se debe ingresar un comentario.</t>
+  </si>
+  <si>
+    <t>Redirecciona a dashboard/ver-publicacion-ofrecida/idPublicacionSeleccionada. Muestra ventana modal para completar comentario y puntuación. Alert correspondiente indicando que se debe ingresar un comentario con al menos dos letras.</t>
+  </si>
+  <si>
+    <t>Datos del cliente</t>
+  </si>
+  <si>
+    <t>dashboard/ver-perfil-usuario/idCliente</t>
+  </si>
+  <si>
+    <t>Listado con los datos personales del cliente</t>
+  </si>
+  <si>
+    <t>Puntaje por servicio del cliente</t>
+  </si>
+  <si>
+    <t>Listado con los puntajes del cliente por servicio</t>
+  </si>
+  <si>
+    <t>Comentario y puntuacion de los servicios ofrecidos por servicio del cliente</t>
+  </si>
+  <si>
+    <t>Listado de todos los comentarios y puntuacion de los servicios ofrecidos por el cliente por servicio.</t>
+  </si>
+  <si>
+    <t>Comentario y puntuacion de las solicitudes realizadas por servicio del cliente</t>
+  </si>
+  <si>
+    <t>Listado de todos los comentarios y puntuacion de las solicitudes realizadas por el cliente por servicio.</t>
+  </si>
+  <si>
+    <t>Click en link responder. No se ingresa comentario.</t>
+  </si>
+  <si>
+    <t>Click en link responder. Comentario correcto.</t>
+  </si>
+  <si>
+    <t>Responder comentario de los servicios ofrecidos</t>
+  </si>
+  <si>
+    <t>Responder comentario de las solicitudes realizadas</t>
+  </si>
+  <si>
+    <t>Editar datos cliente</t>
+  </si>
+  <si>
+    <t>dashboard/perfil-usuario</t>
+  </si>
+  <si>
+    <t>Nombre, Apellido, teléfono, dirección, select barrio vacios.</t>
+  </si>
+  <si>
+    <t>Click en selección de imagen.</t>
+  </si>
+  <si>
+    <t>Datos correctos</t>
+  </si>
+  <si>
+    <t>OK. Alert indicando que los cambios se realizaron con éxito.</t>
+  </si>
+  <si>
+    <t>Click en el Link cambiar contraseña.</t>
+  </si>
+  <si>
+    <t>OK. Redirecciona a dashboard/cambiar-contrasena-usuario.</t>
+  </si>
+  <si>
+    <t>dashboard/listado-servicios-ofrecidos/idServicio</t>
+  </si>
+  <si>
+    <t>Listado de todas las publicaciones de un servicio determinado</t>
+  </si>
+  <si>
+    <t>Listado de todas las publicaciones del servicio seleccionado.</t>
+  </si>
+  <si>
+    <t>OK. Muestra los datos de cada publicación y los datos del cliente dueño de la misma.</t>
+  </si>
+  <si>
+    <t>Click en una publicación.</t>
+  </si>
+  <si>
+    <t>dashboard/listado-solicitudes-ofrecidas/idServicio</t>
+  </si>
+  <si>
+    <t>Listado de todas las solicitudes de un servicio determinado</t>
+  </si>
+  <si>
+    <t>Listado de todas las solicitudes del servicio seleccionado.</t>
+  </si>
+  <si>
+    <t>Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>dashboard/cambiar-contrasena-usuario</t>
+  </si>
+  <si>
+    <t>Contraseña, nueva contraseña y repetir contraseña vacios.</t>
+  </si>
+  <si>
+    <t>Alert correspondientes indicando que debe ingresar la contraseña y la nueva contraseña.</t>
+  </si>
+  <si>
+    <t>Contraseña anterior incorrecta.</t>
+  </si>
+  <si>
+    <t>Alert correspondientes indicando que hay un error en la contraseña anterior.</t>
+  </si>
+  <si>
+    <t>Contraseña nueva con menos de 8 caracteres.</t>
+  </si>
+  <si>
+    <t>Alert correspondientes indicando que debe ingresar una nueva contraseña con al menos 8 caracteres.</t>
+  </si>
+  <si>
+    <t>Contraseña nueva destinta de la confirmación.</t>
+  </si>
+  <si>
+    <t>Alert correspondientes indicando que la contraseña nueva y la confirmación no coinciden.</t>
+  </si>
+  <si>
+    <t>Datos correctos.</t>
   </si>
 </sst>
 </file>
@@ -729,17 +870,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" customWidth="1"/>
-    <col min="4" max="4" width="136.109375" customWidth="1"/>
+    <col min="1" max="1" width="68.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="99" customWidth="1"/>
+    <col min="4" max="4" width="206" customWidth="1"/>
     <col min="5" max="5" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1451,7 +1593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
@@ -1465,7 +1607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -1479,7 +1621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -1493,7 +1635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -1505,6 +1647,446 @@
       </c>
       <c r="D52" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
+++ b/Documentacion/Testing y funcionalidades/Testing_Funcionalidades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="185">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -495,6 +495,90 @@
   </si>
   <si>
     <t>Datos correctos.</t>
+  </si>
+  <si>
+    <t>dashboard/ver-publicacion-ofrecida/idPublicacion</t>
+  </si>
+  <si>
+    <t>Muestra todos los datos de la publicación.</t>
+  </si>
+  <si>
+    <t>Muestra todos los datos del cliente dueño de la publicación. Muetra puntaje de la publicación y del servicio en general</t>
+  </si>
+  <si>
+    <t>Listado datos de la publicación</t>
+  </si>
+  <si>
+    <t>Listado datos del cliente dueño de la publicación</t>
+  </si>
+  <si>
+    <t>Listado de los comentarios y puntuaciones de la publicación</t>
+  </si>
+  <si>
+    <t>Muestra todos los comentarios y puntajes de la publicación</t>
+  </si>
+  <si>
+    <t>Responder comentario realizado a la publicación</t>
+  </si>
+  <si>
+    <t>Click en link responder. No se ingresa comentario. Solo se responde si es el dueño de la publicación.</t>
+  </si>
+  <si>
+    <t>Click en link responder. Comentario correcto. Solo se responde si es el dueño de la publicación.</t>
+  </si>
+  <si>
+    <t>dashboard/ver-publicacion-solicitada/idPublicacion</t>
+  </si>
+  <si>
+    <t>Listado datos de la solicitud</t>
+  </si>
+  <si>
+    <t>Muestra todos los datos de la solicitud.</t>
+  </si>
+  <si>
+    <t>Muestra imagen y nombre de usuario del cliente dueño de la publicación.</t>
+  </si>
+  <si>
+    <t>FALTA MOSTRAR UBICACIÓN</t>
+  </si>
+  <si>
+    <t>VER LOS PUNTAJES, EL DE LOS SERVICIOS DEBE SER DE SOLICITUDES Y OFERTAS. FALTA MOSTRAR UBICACIÓN</t>
+  </si>
+  <si>
+    <t>Listado de todas las propuestas</t>
+  </si>
+  <si>
+    <t>Muestra todos las propuestas realizadas hasta el momento.</t>
+  </si>
+  <si>
+    <t>Realizar una postulación</t>
+  </si>
+  <si>
+    <t>Click en link postularme. No se ingresa datos.</t>
+  </si>
+  <si>
+    <t>Alert correspondiente indicando que se debe ingresar un texto.</t>
+  </si>
+  <si>
+    <t>Click en link postularme. Datos correctos.</t>
+  </si>
+  <si>
+    <t>Mostrar/Ocultar Propuestas</t>
+  </si>
+  <si>
+    <t>Muestra/Oculta las propuestas realizadas.</t>
+  </si>
+  <si>
+    <t>Aceptar propuesta</t>
+  </si>
+  <si>
+    <t>Click en aceptar propuesta. Unicamente el due;o de la solicitud tiene el link.</t>
+  </si>
+  <si>
+    <t>OK. Se acepta la propuesta, se finaliza la solicitud, se habilita la calificaci'on del usuario contratado.</t>
+  </si>
+  <si>
+    <t>FALTA NOTIFICAR AL CONTRATADO, MOSTRAR DATOS DEL DUE;O DE LA PUBLICACI'ON. MOSTRAR DATOS DEL TRABAJADOR.</t>
   </si>
 </sst>
 </file>
@@ -870,19 +954,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.5546875" customWidth="1"/>
     <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="99" customWidth="1"/>
+    <col min="3" max="3" width="102.77734375" customWidth="1"/>
     <col min="4" max="4" width="206" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" customWidth="1"/>
+    <col min="5" max="5" width="108.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,7 +2131,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>146</v>
       </c>
@@ -2061,7 +2145,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
@@ -2075,7 +2159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
@@ -2087,6 +2171,197 @@
       </c>
       <c r="D83" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
